--- a/material/07_jQuery/0315.model2ex.xlsx
+++ b/material/07_jQuery/0315.model2ex.xlsx
@@ -270,15 +270,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>joinView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>join.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JoinService.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -377,6 +369,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>adminLogin.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>관리자모드 로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,7 +417,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>idConfirm.do</t>
+    <t>MidConfirmService.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -429,6 +425,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>loginView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">member/login.jsp </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -456,6 +456,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>MLogoutService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>정보수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -488,6 +492,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>admin/adminLogin.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>withdrawal.do</t>
   </si>
   <si>
@@ -523,182 +531,174 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>MemberDto속성들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardWriteService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardListService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardContentService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardDeleteService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardDto 속성들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardDto 속성들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardDto 속성들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">member/mAllView.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardList.do</t>
+  </si>
+  <si>
+    <t>boardList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid, mpw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">aid, apw </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 소분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller 요청 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joinView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJoinService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>midConfirm.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemailConfirmService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memailConfirm.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/midConfirm.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/memailConfirm.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminLoginView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALoginService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fileBoard/boardWrite.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fileBoard/boardList.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fileBoard/boardContent.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>boardModifyView.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">fileBoard/boardModify.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardModifyViewService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>boardModify.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>BoardModifyService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardReplyViewService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fileBoard/boardReply.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardReply.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardReplyService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardReplyView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>boardDelete.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boardReplyView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boardReply.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemberDto속성들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemberDto속성들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">freeBoard/boardWrite.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">freeBoard/boardList.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">freeBoard/boardContent.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">freeBoard/boardModify.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">freeBoard/boardReply.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardWriteService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardListService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardContentService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardModifyService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardDeleteService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardReplyViewService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardReplyService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardDto 속성들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardDto 속성들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardDto 속성들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardModifyViewService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boardList.do</t>
-  </si>
-  <si>
-    <t>boardList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mid, mpw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">aid, apw </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능 소분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Controller 요청 경로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLogoutService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adminLoginView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin/adminLogin.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALoginService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adminLogin.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">member/mAllView.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MidConfirmService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member/idConfirm.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emailConfirm.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemailConfirmService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member/emailConfirm.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginView.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1332,9 +1332,6 @@
     <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1386,39 +1383,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1429,6 +1426,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1780,7 +1780,7 @@
   <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="AQ20" sqref="AQ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -1797,41 +1797,41 @@
     <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
+      <c r="B2" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
@@ -1876,32 +1876,32 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="60" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="65" t="s">
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="62"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="22"/>
       <c r="E7" s="13">
         <v>27</v>
@@ -2001,7 +2001,7 @@
     <row r="11" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="54" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="10"/>
@@ -2022,7 +2022,7 @@
     <row r="12" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="55"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
       <c r="F12" s="6"/>
@@ -2060,7 +2060,7 @@
     <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="57" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="10"/>
@@ -2081,7 +2081,7 @@
     <row r="15" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="58"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
       <c r="F15" s="6"/>
@@ -2119,7 +2119,7 @@
     <row r="17" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="54" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="10"/>
@@ -2140,7 +2140,7 @@
     <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="55"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="10"/>
       <c r="E18" s="6"/>
       <c r="F18" s="8"/>
@@ -2199,7 +2199,7 @@
     <row r="21" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="55" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="10"/>
@@ -2220,7 +2220,7 @@
     <row r="22" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="56"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="10"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -2258,7 +2258,7 @@
     <row r="24" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="55" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="10"/>
@@ -2279,7 +2279,7 @@
     <row r="25" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="56"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="10"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -2317,7 +2317,7 @@
     <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="55" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="10"/>
@@ -2338,7 +2338,7 @@
     <row r="28" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="56"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="10"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -2376,7 +2376,7 @@
     <row r="30" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="55" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="10"/>
@@ -2397,7 +2397,7 @@
     <row r="31" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="56"/>
+      <c r="C31" s="55"/>
       <c r="D31" s="10"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -2435,7 +2435,7 @@
     <row r="33" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="55" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="10"/>
@@ -2456,7 +2456,7 @@
     <row r="34" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="56"/>
+      <c r="C34" s="55"/>
       <c r="D34" s="10"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -2494,8 +2494,8 @@
     <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="56" t="s">
-        <v>82</v>
+      <c r="C36" s="55" t="s">
+        <v>80</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="6"/>
@@ -2515,7 +2515,7 @@
     <row r="37" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="56"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="10"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -2574,7 +2574,7 @@
     <row r="40" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="10"/>
@@ -2595,7 +2595,7 @@
     <row r="41" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="57"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="10"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -2633,7 +2633,7 @@
     <row r="43" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="57" t="s">
+      <c r="C43" s="56" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="10"/>
@@ -2654,7 +2654,7 @@
     <row r="44" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="57"/>
+      <c r="C44" s="56"/>
       <c r="D44" s="10"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -2692,7 +2692,7 @@
     <row r="46" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="56" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="10"/>
@@ -2713,7 +2713,7 @@
     <row r="47" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="16"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="57"/>
+      <c r="C47" s="56"/>
       <c r="D47" s="10"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -2751,7 +2751,7 @@
     <row r="49" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="16"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="56" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="10"/>
@@ -2772,7 +2772,7 @@
     <row r="50" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="16"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="57"/>
+      <c r="C50" s="56"/>
       <c r="D50" s="10"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -2831,7 +2831,7 @@
     <row r="53" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="52" t="s">
+      <c r="C53" s="51" t="s">
         <v>32</v>
       </c>
       <c r="D53" s="10"/>
@@ -2852,7 +2852,7 @@
     <row r="54" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="52"/>
+      <c r="C54" s="51"/>
       <c r="D54" s="10"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -2890,7 +2890,7 @@
     <row r="56" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="52" t="s">
+      <c r="C56" s="51" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="10"/>
@@ -2911,7 +2911,7 @@
     <row r="57" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="52"/>
+      <c r="C57" s="51"/>
       <c r="D57" s="10"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -2949,7 +2949,7 @@
     <row r="59" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="52" t="s">
+      <c r="C59" s="51" t="s">
         <v>34</v>
       </c>
       <c r="D59" s="10"/>
@@ -2970,7 +2970,7 @@
     <row r="60" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="52"/>
+      <c r="C60" s="51"/>
       <c r="D60" s="10"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -3008,7 +3008,7 @@
     <row r="62" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="52" t="s">
+      <c r="C62" s="51" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="10"/>
@@ -3029,7 +3029,7 @@
     <row r="63" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="52"/>
+      <c r="C63" s="51"/>
       <c r="D63" s="10"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -3067,7 +3067,7 @@
     <row r="65" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="16"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="52" t="s">
+      <c r="C65" s="51" t="s">
         <v>36</v>
       </c>
       <c r="D65" s="10"/>
@@ -3088,7 +3088,7 @@
     <row r="66" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="52"/>
+      <c r="C66" s="51"/>
       <c r="D66" s="10"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -3126,8 +3126,8 @@
     <row r="68" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="16"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="53" t="s">
-        <v>81</v>
+      <c r="C68" s="52" t="s">
+        <v>79</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="6"/>
@@ -3147,7 +3147,7 @@
     <row r="69" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="16"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="53"/>
+      <c r="C69" s="52"/>
       <c r="D69" s="7"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -3207,18 +3207,18 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
       <c r="H72" s="6"/>
       <c r="I72" s="38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J72" s="38"/>
       <c r="K72" s="6"/>
-      <c r="L72" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M72" s="51"/>
+      <c r="L72" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="M72" s="50"/>
       <c r="N72" s="40"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
@@ -3281,7 +3281,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3297,7 +3297,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3308,7 +3308,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3320,7 +3320,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3335,7 +3335,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3394,9 +3394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3506,8 +3504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3526,458 +3524,458 @@
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="41"/>
       <c r="C2" s="42" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>57</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H2" s="42" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="69" t="s">
-        <v>66</v>
+      <c r="B3" s="66" t="s">
+        <v>64</v>
       </c>
       <c r="C3" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="E3" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81" t="s">
+    </row>
+    <row r="4" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="67"/>
+      <c r="C4" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="80" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="80" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="80" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="76"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" s="80" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="76"/>
+      <c r="C10" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="80" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="72" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="70"/>
-      <c r="C4" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="81" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="H5" s="81" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="81" t="s">
-        <v>165</v>
-      </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81" t="s">
-        <v>166</v>
-      </c>
-      <c r="H6" s="81" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="81" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="81" t="s">
-        <v>157</v>
-      </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="73"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="81" t="s">
-        <v>160</v>
-      </c>
-      <c r="F9" s="81" t="s">
-        <v>152</v>
-      </c>
-      <c r="G9" s="81" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9" s="81" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="73"/>
-      <c r="C10" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="81" t="s">
-        <v>114</v>
-      </c>
-      <c r="H10" s="81" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="76" t="s">
+      <c r="D11" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81" t="s">
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="79"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="81" t="s">
+      <c r="B12" s="78"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="81" t="s">
-        <v>151</v>
-      </c>
-      <c r="G12" s="81" t="s">
+      <c r="F12" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="H12" s="81" t="s">
+      <c r="H12" s="80" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="79"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="46" t="s">
         <v>104</v>
       </c>
       <c r="D13" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81" t="s">
+      <c r="F13" s="80"/>
+      <c r="G13" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="78"/>
+      <c r="C14" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="78"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="78"/>
+      <c r="C16" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="78"/>
+      <c r="C17" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="80" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="78"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="80"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="78"/>
+      <c r="C19" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="80" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="78"/>
+      <c r="C20" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="H13" s="81" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="79"/>
-      <c r="C14" s="76" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="81" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="79"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="81" t="s">
-        <v>110</v>
-      </c>
-      <c r="F15" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="G15" s="81" t="s">
-        <v>113</v>
-      </c>
-      <c r="H15" s="81" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="79"/>
-      <c r="C16" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="81" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="79"/>
-      <c r="C17" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="48" t="s">
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="78"/>
+      <c r="C21" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="H21" s="80" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="78"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="H22" s="80" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="78"/>
+      <c r="C23" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="78"/>
+      <c r="C24" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" s="80" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="79"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="48" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="79"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="G18" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="H18" s="48"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="79"/>
-      <c r="C19" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="H19" s="48" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="79"/>
-      <c r="C20" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="G20" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="79"/>
-      <c r="C21" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="H21" s="48" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="79"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="H22" s="48" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="79"/>
-      <c r="C23" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="G23" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="H23" s="50" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="79"/>
-      <c r="C24" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="G24" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" s="48" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="80"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" s="48" t="s">
-        <v>143</v>
-      </c>
       <c r="G25" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="H25" s="50" t="s">
-        <v>147</v>
+        <v>165</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D21:D22"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B11:B25"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B11:B25"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D21:D22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
